--- a/reports/air_export_employee_kpis/price_weigth_per.xlsx
+++ b/reports/air_export_employee_kpis/price_weigth_per.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,158 +447,54 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aleyna BASAR</t>
+          <t>Erhan KOSEOGLU</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2260</v>
+        <v>135370</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anil KALAC</t>
+          <t>Kemal HAZNEDAR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3347</v>
+        <v>165260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bunyamin KELES</t>
+          <t>Omer ASIKGUL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40893</v>
+        <v>124843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>Erhan KOSEOGLU</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>119141.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gozde SAHIN</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gulcin ERDIR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Kemal HAZNEDAR</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>141280</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Leman ULAC</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Omer ASIKGUL</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>114339</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
         <is>
           <t>Omer Zeki HAVA</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>136066.77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Seyma SAHIN</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>5252</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Zeynep CALISKAN</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>4369</v>
+      <c r="C5" t="n">
+        <v>147144</v>
       </c>
     </row>
   </sheetData>
